--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,131 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
-        <v>43555</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F8" s="3">
         <v>7800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>13200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>17700</v>
       </c>
-      <c r="H8" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F9" s="3">
         <v>7200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H9" s="3">
         <v>9800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>10500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>17100</v>
       </c>
-      <c r="H9" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -779,28 +797,34 @@
         <v>600</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
-        <v>200</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +836,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,16 +902,22 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>-600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -890,17 +928,23 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +988,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>11400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>19700</v>
       </c>
-      <c r="H17" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,144 +1084,174 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1200</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1800</v>
-      </c>
       <c r="G27" s="3">
-        <v>-1600</v>
+        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-800</v>
       </c>
       <c r="I27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1504,69 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1800</v>
-      </c>
       <c r="G33" s="3">
-        <v>-1600</v>
+        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-800</v>
       </c>
       <c r="I33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1800</v>
-      </c>
       <c r="G35" s="3">
-        <v>-1600</v>
+        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-800</v>
       </c>
       <c r="I35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
-        <v>43555</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1703,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,28 +1769,34 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1620,8 +1804,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,37 +1839,49 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1909,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1944,49 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F48" s="3">
         <v>42100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3">
         <v>32900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>31000</v>
       </c>
-      <c r="G48" s="3">
-        <v>31400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2084,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2154,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F54" s="3">
         <v>45600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3">
         <v>33700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>31800</v>
       </c>
-      <c r="G54" s="3">
-        <v>31900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,95 +2223,115 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26300</v>
+        <v>17100</v>
       </c>
       <c r="E58" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>27100</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>28800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>25000</v>
       </c>
-      <c r="G58" s="3">
-        <v>27300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,45 +2359,57 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>4000</v>
       </c>
-      <c r="G61" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2127,20 +2417,26 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2534,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F66" s="3">
         <v>36100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3">
         <v>34600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>31900</v>
       </c>
-      <c r="G66" s="3">
-        <v>33700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2724,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2864,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F76" s="3">
         <v>9500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
-        <v>43555</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1800</v>
-      </c>
       <c r="G81" s="3">
-        <v>-1600</v>
+        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-800</v>
       </c>
       <c r="I81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3028,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-16900</v>
       </c>
       <c r="E89" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-6300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>600</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>23600</v>
       </c>
       <c r="E100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>6700</v>
       </c>
-      <c r="H100" s="3">
-        <v>300</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>6700</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E8" s="3">
         <v>13900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
         <v>13300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,20 +925,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -934,17 +954,20 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>15300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
       </c>
       <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,20 +1108,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1099,54 +1133,60 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1157,101 +1197,110 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,20 +1562,23 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1519,54 +1589,60 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,32 +1791,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E41" s="3">
         <v>9000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2400</v>
       </c>
       <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="G41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,31 +1865,34 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,31 +1941,34 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1880,8 +1979,11 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,32 +2055,35 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E48" s="3">
         <v>45200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>42100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
         <v>32900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,32 +2207,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,32 +2283,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E54" s="3">
         <v>56000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3">
         <v>33700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,32 +2355,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,32 +2391,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E58" s="3">
         <v>17100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>28800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,32 +2429,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,8 +2467,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2365,32 +2505,35 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5500</v>
+        <v>6200</v>
       </c>
       <c r="E61" s="3">
         <v>5500</v>
       </c>
       <c r="F61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2543,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2426,8 +2572,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,32 +2695,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E66" s="3">
         <v>24700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3">
         <v>34600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,13 +2825,16 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>28700</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,32 +2901,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,32 +3053,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E76" s="3">
         <v>31400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,32 +3240,35 @@
       <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12900</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +3828,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E100" s="3">
         <v>23600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,25 +3904,28 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>6700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
@@ -3682,12 +3934,15 @@
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E9" s="3">
         <v>10800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,23 +945,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,17 +977,20 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>14200</v>
       </c>
       <c r="E17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F17" s="3">
         <v>15300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>3800</v>
       </c>
       <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,23 +1142,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1136,57 +1170,63 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>4100</v>
       </c>
       <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>-800</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1200,107 +1240,116 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>3700</v>
       </c>
       <c r="E26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>3100</v>
       </c>
       <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,23 +1632,26 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1592,57 +1662,63 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>3100</v>
       </c>
       <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>3100</v>
       </c>
       <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,35 +1878,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E41" s="3">
         <v>12800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2400</v>
       </c>
       <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="H41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1877,25 +1970,25 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,34 +2040,37 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1982,8 +2081,11 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2020,31 +2122,34 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2058,35 +2163,38 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E48" s="3">
         <v>94500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>42100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3">
         <v>32900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,35 +2327,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>600</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,35 +2409,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E54" s="3">
         <v>109700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3">
         <v>33700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,8 +2486,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2365,26 +2496,26 @@
         <v>5900</v>
       </c>
       <c r="E57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,35 +2525,38 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>36800</v>
+        <v>51900</v>
       </c>
       <c r="E58" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F58" s="3">
         <v>17100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>28800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,8 +2566,11 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2441,26 +2578,26 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2607,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2508,35 +2648,38 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="E61" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="F61" s="3">
         <v>5500</v>
       </c>
       <c r="G61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H61" s="3">
         <v>4900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2575,8 +2721,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,35 +2853,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E66" s="3">
         <v>48600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3">
         <v>34600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2837,7 +3005,7 @@
         <v>28700</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>28700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,35 +3075,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,35 +3239,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E76" s="3">
         <v>32400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>3100</v>
       </c>
       <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,13 +3427,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3243,32 +3442,35 @@
       <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-44600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
-        <v>-2800</v>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
+        <v>400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>100</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E100" s="3">
         <v>48400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>23600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
-        <v>2700</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6700</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -1899,11 +1899,11 @@
       <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>500</v>
       </c>
       <c r="J41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
@@ -1981,8 +1981,8 @@
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2063,8 +2063,8 @@
       <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2186,11 +2186,11 @@
       <c r="H48" s="3">
         <v>42100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>32900</v>
       </c>
       <c r="J48" s="3">
-        <v>32900</v>
+        <v>31000</v>
       </c>
       <c r="K48" s="3">
         <v>31000</v>
@@ -2350,11 +2350,11 @@
       <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2432,11 +2432,11 @@
       <c r="H54" s="3">
         <v>45600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>33700</v>
       </c>
       <c r="J54" s="3">
-        <v>33700</v>
+        <v>31800</v>
       </c>
       <c r="K54" s="3">
         <v>31800</v>
@@ -2507,11 +2507,11 @@
       <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>3200</v>
       </c>
       <c r="J57" s="3">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="K57" s="3">
         <v>3800</v>
@@ -2548,11 +2548,11 @@
       <c r="H58" s="3">
         <v>27100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>28800</v>
       </c>
       <c r="J58" s="3">
-        <v>28800</v>
+        <v>25000</v>
       </c>
       <c r="K58" s="3">
         <v>25000</v>
@@ -2589,11 +2589,11 @@
       <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>1000</v>
       </c>
       <c r="J59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
@@ -2672,10 +2672,10 @@
         <v>4900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J61" s="3">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="K61" s="3">
         <v>4000</v>
@@ -2876,11 +2876,11 @@
       <c r="H66" s="3">
         <v>36100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>34600</v>
       </c>
       <c r="J66" s="3">
-        <v>34600</v>
+        <v>31900</v>
       </c>
       <c r="K66" s="3">
         <v>31900</v>
@@ -3098,11 +3098,11 @@
       <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>-1700</v>
       </c>
       <c r="J72" s="3">
-        <v>-1700</v>
+        <v>-1000</v>
       </c>
       <c r="K72" s="3">
         <v>-1000</v>
@@ -3262,11 +3262,11 @@
       <c r="H76" s="3">
         <v>9500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>-900</v>
       </c>
       <c r="J76" s="3">
-        <v>-900</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,204 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E8" s="3">
         <v>18000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E9" s="3">
         <v>10900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E10" s="3">
         <v>7100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,15 +978,15 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -980,17 +999,20 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1069,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-800</v>
       </c>
       <c r="H18" s="3">
         <v>-800</v>
       </c>
       <c r="I18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,26 +1175,27 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1173,65 +1206,71 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1243,77 +1282,83 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1322,34 +1367,37 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1437,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,26 +1701,29 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1665,60 +1734,66 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1833,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,37 +1964,38 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2400</v>
       </c>
       <c r="H41" s="3">
         <v>2400</v>
       </c>
       <c r="I41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>400</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>400</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1920,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,28 +2050,31 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1990,8 +2082,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,28 +2138,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2072,8 +2170,8 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>100</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2084,8 +2182,11 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2125,20 +2226,23 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E47" s="3">
         <v>4800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2151,8 +2255,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2166,37 +2270,40 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E48" s="3">
         <v>115400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>94500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>31000</v>
       </c>
       <c r="K48" s="3">
         <v>31000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>31000</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,37 +2446,40 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>300</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,37 +2534,40 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E54" s="3">
         <v>128000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>31800</v>
       </c>
       <c r="K54" s="3">
         <v>31800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>31800</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,37 +2616,38 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5900</v>
+        <v>10700</v>
       </c>
       <c r="E57" s="3">
         <v>5900</v>
       </c>
       <c r="F57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3800</v>
       </c>
       <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>3800</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2528,37 +2658,40 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E58" s="3">
         <v>51900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>38500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>28800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>25000</v>
       </c>
       <c r="K58" s="3">
         <v>25000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>25000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2569,37 +2702,40 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>4200</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>1100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2610,8 +2746,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2651,37 +2790,40 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>5800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5500</v>
       </c>
       <c r="G61" s="3">
         <v>5500</v>
       </c>
       <c r="H61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>4000</v>
       </c>
       <c r="K61" s="3">
         <v>4000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2692,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2724,8 +2869,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,37 +3010,40 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E66" s="3">
         <v>63700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>31900</v>
       </c>
       <c r="K66" s="3">
         <v>31900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>31900</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,19 +3160,22 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>28700</v>
+        <v>66500</v>
       </c>
       <c r="E70" s="3">
         <v>28700</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>28700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,37 +3248,40 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1000</v>
       </c>
       <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>-1000</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,37 +3424,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E76" s="3">
         <v>35700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>-200</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3512,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3437,7 +3635,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3445,32 +3643,35 @@
       <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>-300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3887,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-44600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12900</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +3951,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4081,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4319,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E100" s="3">
         <v>10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>48400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>23600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4407,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,230 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F8" s="3">
         <v>26300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>18000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>14100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>13900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>24300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>17700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F9" s="3">
         <v>15500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>10900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>13300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>23900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>17100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F10" s="3">
         <v>10800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>400</v>
       </c>
       <c r="I10" s="3">
         <v>600</v>
       </c>
       <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>600</v>
+      </c>
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,32 +1001,38 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,17 +1042,23 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F17" s="3">
         <v>19000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>25100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>19700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,32 +1242,34 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1209,74 +1277,86 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>9800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1285,119 +1365,137 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-1000</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,32 +1838,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1737,63 +1877,75 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,52 +2137,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F41" s="3">
         <v>25600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,43 +2233,49 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2283,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,43 +2333,49 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2185,8 +2383,14 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2229,26 +2433,32 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F47" s="3">
         <v>4200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>4800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,11 +2468,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2273,52 +2483,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>141500</v>
+      </c>
+      <c r="F48" s="3">
         <v>134800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>115400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>94500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>45200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>29400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>42100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>32900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>31000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>31000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2583,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,52 +2683,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>184500</v>
+      </c>
+      <c r="F54" s="3">
         <v>169700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>128000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>109700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>56000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>33600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>45600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>33700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>31800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>31800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,140 +2877,160 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F57" s="3">
         <v>10700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F58" s="3">
         <v>50300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>51900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>38500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>17100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>17300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>27100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>28800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>25000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>25000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2793,52 +3073,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2872,17 +3164,23 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>84900</v>
+      </c>
+      <c r="F66" s="3">
         <v>68700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>63700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>48600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>24700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>25900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>36100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>34600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>31900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>31900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,26 +3493,32 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E70" s="3">
         <v>66500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
+        <v>66500</v>
+      </c>
+      <c r="G70" s="3">
         <v>28700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>28700</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F76" s="3">
         <v>34500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>35700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>32400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>31400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +4022,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3638,40 +4036,46 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>-300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-18000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-44600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-16900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>12900</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,52 +4808,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F100" s="3">
         <v>28100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>10800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>48400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>23600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-13500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,48 +4908,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F102" s="3">
         <v>20800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E8" s="3">
         <v>10300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E9" s="3">
         <v>12200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,8 +1038,8 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1027,15 +1047,15 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1048,17 +1068,20 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E17" s="3">
         <v>15900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-800</v>
       </c>
       <c r="K18" s="3">
         <v>-800</v>
       </c>
       <c r="L18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,35 +1277,36 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1283,83 +1317,89 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1371,96 +1411,102 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1468,34 +1514,37 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,35 +1911,38 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1883,69 +1953,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,46 +2225,47 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E41" s="3">
         <v>22000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2400</v>
       </c>
       <c r="K41" s="3">
         <v>2400</v>
       </c>
       <c r="L41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>400</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,37 +2329,40 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2277,8 +2370,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,37 +2435,40 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
         <v>2500</v>
       </c>
       <c r="F45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2377,8 +2476,8 @@
       <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>100</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2389,8 +2488,11 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2439,29 +2541,32 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E47" s="3">
         <v>12200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>15400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2579,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2489,46 +2594,49 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E48" s="3">
         <v>167500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>141500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>134800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>115400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>94500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>45200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>31000</v>
       </c>
       <c r="N48" s="3">
         <v>31000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>31000</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,46 +2806,49 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>300</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,46 +2912,49 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>227400</v>
+      </c>
+      <c r="E54" s="3">
         <v>208300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>184500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>169700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>128000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>109700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>31800</v>
       </c>
       <c r="N54" s="3">
         <v>31800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
+      <c r="O54" s="3">
+        <v>31800</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,46 +3009,47 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E57" s="3">
         <v>12600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5900</v>
       </c>
       <c r="H57" s="3">
         <v>5900</v>
       </c>
       <c r="I57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3800</v>
       </c>
       <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>3800</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -2929,46 +3060,49 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E58" s="3">
         <v>70800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>49500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>51900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>38500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>25000</v>
       </c>
       <c r="N58" s="3">
         <v>25000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>25000</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -2979,46 +3113,49 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
         <v>8100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1000</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
       </c>
       <c r="I59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>1100</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3166,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3079,46 +3219,49 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E61" s="3">
         <v>23400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>5500</v>
       </c>
       <c r="J61" s="3">
         <v>5500</v>
       </c>
       <c r="K61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L61" s="3">
         <v>4900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>4000</v>
       </c>
       <c r="N61" s="3">
         <v>4000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3129,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3170,8 +3316,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,46 +3484,49 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E66" s="3">
         <v>115000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>31900</v>
       </c>
       <c r="N66" s="3">
         <v>31900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
+      <c r="O66" s="3">
+        <v>31900</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3508,19 +3676,19 @@
         <v>62900</v>
       </c>
       <c r="E70" s="3">
-        <v>66500</v>
+        <v>62900</v>
       </c>
       <c r="F70" s="3">
         <v>66500</v>
       </c>
       <c r="G70" s="3">
-        <v>28700</v>
+        <v>66500</v>
       </c>
       <c r="H70" s="3">
         <v>28700</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>28700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,46 +3770,49 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6500</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
       <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1000</v>
       </c>
       <c r="N72" s="3">
         <v>-1000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>-1000</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,46 +3982,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E76" s="3">
         <v>30300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>-200</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,13 +4222,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -4042,7 +4241,7 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4050,32 +4249,35 @@
       <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>200</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>-300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-44600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E100" s="3">
         <v>26400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>28100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,255 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
         <v>11700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E9" s="3">
         <v>11300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,8 +1060,8 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1050,15 +1069,15 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,17 +1090,20 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
       </c>
       <c r="L18" s="3">
         <v>-800</v>
       </c>
       <c r="M18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,38 +1310,39 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1320,89 +1353,95 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1414,102 +1453,108 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1517,34 +1562,37 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,38 +1980,41 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1956,72 +2025,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,49 +2311,50 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E41" s="3">
         <v>13700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2400</v>
       </c>
       <c r="L41" s="3">
         <v>2400</v>
       </c>
       <c r="M41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N41" s="3">
         <v>500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>400</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2279,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,40 +2421,43 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2373,8 +2465,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2385,8 +2477,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,40 +2533,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2500</v>
       </c>
       <c r="F45" s="3">
         <v>2500</v>
       </c>
       <c r="G45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2479,8 +2577,8 @@
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>100</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2491,8 +2589,11 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2544,32 +2645,35 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E47" s="3">
         <v>9800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>15400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2686,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2597,49 +2701,52 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E48" s="3">
         <v>192300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>167500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>141500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>134800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>115400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>94500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>45200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>42100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>31000</v>
       </c>
       <c r="O48" s="3">
         <v>31000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>31000</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,49 +2925,52 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>300</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2862,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,49 +3037,52 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>236200</v>
+      </c>
+      <c r="E54" s="3">
         <v>227400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>208300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>184500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>169700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>128000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>31800</v>
       </c>
       <c r="O54" s="3">
         <v>31800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
+      <c r="P54" s="3">
+        <v>31800</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
@@ -2968,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,49 +3139,50 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5900</v>
       </c>
       <c r="I57" s="3">
         <v>5900</v>
       </c>
       <c r="J57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3800</v>
       </c>
       <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>3800</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3063,49 +3193,52 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E58" s="3">
         <v>92700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>70800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>49500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>51900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>38500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>25000</v>
       </c>
       <c r="O58" s="3">
         <v>25000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>25000</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3116,49 +3249,52 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1100</v>
       </c>
       <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>1100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3169,8 +3305,11 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3222,49 +3361,52 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E61" s="3">
         <v>28500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>5500</v>
       </c>
       <c r="K61" s="3">
         <v>5500</v>
       </c>
       <c r="L61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M61" s="3">
         <v>4900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>4000</v>
       </c>
       <c r="O61" s="3">
         <v>4000</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3275,8 +3417,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3319,8 +3464,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3328,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,49 +3641,52 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E66" s="3">
         <v>139300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>115000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>48600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>31900</v>
       </c>
       <c r="O66" s="3">
         <v>31900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
+      <c r="P66" s="3">
+        <v>31900</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
@@ -3540,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3679,19 +3846,19 @@
         <v>62900</v>
       </c>
       <c r="F70" s="3">
-        <v>66500</v>
+        <v>62900</v>
       </c>
       <c r="G70" s="3">
         <v>66500</v>
       </c>
       <c r="H70" s="3">
-        <v>28700</v>
+        <v>66500</v>
       </c>
       <c r="I70" s="3">
         <v>28700</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>28700</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,49 +3943,52 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6500</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1000</v>
       </c>
       <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>-1000</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3826,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,49 +4167,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E76" s="3">
         <v>25100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>-200</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4038,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4232,7 +4430,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -4244,7 +4442,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4252,32 +4450,35 @@
       <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>200</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>-300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-44600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4834,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5302,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E100" s="3">
         <v>24400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>26400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>23600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5414,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,255 +665,281 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>28600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>26300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>18000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>13900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>24300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>13200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>17700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5000</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F9" s="3">
         <v>9800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>12200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>22500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>15500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>10900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>13300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>23900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>17100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F10" s="3">
         <v>-5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-1900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>10800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>400</v>
       </c>
       <c r="M10" s="3">
         <v>600</v>
       </c>
       <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
+        <v>600</v>
+      </c>
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +960,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1018,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1080,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,27 +1103,27 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,17 +1133,23 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-1200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1204,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1229,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F17" s="3">
         <v>14000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>26400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>25100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>19700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,44 +1377,46 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1356,98 +1424,110 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>9800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1456,143 +1536,161 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-1000</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1745,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1931,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1993,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +2055,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,44 +2117,50 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2028,75 +2168,87 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2303,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2460,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,64 +2484,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F41" s="3">
         <v>9700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>22000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>22300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>25600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,55 +2604,61 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2480,8 +2666,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,55 +2728,61 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2592,8 +2790,14 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2648,38 +2852,44 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F47" s="3">
         <v>4500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>9800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>12200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>15400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>4800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2689,11 +2899,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2704,64 +2914,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>221700</v>
+      </c>
+      <c r="F48" s="3">
         <v>209700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>192300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>167500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>141500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>134800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>115400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>94500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>45200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>29400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>42100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>32900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>31000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>31000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,8 +3038,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +3100,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,64 +3162,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3286,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>242000</v>
+      </c>
+      <c r="F54" s="3">
         <v>236200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>227400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>208300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>184500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>169700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>128000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>109700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>56000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>33600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>45600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>33700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>31800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>31800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3376,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,176 +3400,196 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F57" s="3">
         <v>11500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>10700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>130700</v>
+      </c>
+      <c r="F58" s="3">
         <v>117700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>92700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>70800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>49500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>50300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>51900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>38500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>17100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>17300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>27100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>28800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>25000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>25000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3364,64 +3644,76 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F61" s="3">
         <v>24900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>28500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>23400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>15300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3467,17 +3759,23 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3830,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3892,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3954,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>173100</v>
+      </c>
+      <c r="F66" s="3">
         <v>160600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>139300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>115000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>84900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>68700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>63700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>48600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>25900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>36100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>34600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>31900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>31900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +4044,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +4102,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +4164,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3849,23 +4185,23 @@
         <v>62900</v>
       </c>
       <c r="G70" s="3">
+        <v>62900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>62900</v>
+      </c>
+      <c r="I70" s="3">
         <v>66500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>66500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>28700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>28700</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3890,8 +4226,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4288,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6500</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4412,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4474,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4536,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F76" s="3">
         <v>12600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>30300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>34500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>35700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>32400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>31400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4660,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,22 +4817,24 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4445,40 +4843,46 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4937,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4999,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +5061,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +5123,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +5185,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-25700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-32600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-26100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-9400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-18000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-44600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-16900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>12900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,64 +5275,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5395,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5457,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5547,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5605,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5667,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5729,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,64 +5791,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F100" s="3">
         <v>17600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>24400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>26400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>7100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>28100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>48400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>23600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-13500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,60 +5915,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>20800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>HCDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>19800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5000</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E9" s="3">
         <v>22800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1129,8 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1118,15 +1138,15 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1139,17 +1159,20 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>25100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-800</v>
       </c>
       <c r="O18" s="3">
         <v>-800</v>
       </c>
       <c r="P18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,47 +1412,48 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1430,107 +1464,113 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1542,120 +1582,126 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1663,34 +1709,37 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,47 +2190,50 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2174,81 +2244,87 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,58 +2572,59 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2400</v>
       </c>
       <c r="O41" s="3">
         <v>2400</v>
       </c>
       <c r="P41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>400</v>
       </c>
       <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
+      <c r="S41" s="3">
+        <v>400</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
@@ -2548,8 +2635,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,49 +2700,52 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2660,8 +2753,8 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
@@ -2672,8 +2765,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,49 +2830,52 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2500</v>
       </c>
       <c r="I45" s="3">
         <v>2500</v>
       </c>
       <c r="J45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2784,8 +2883,8 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>100</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2796,8 +2895,11 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2858,41 +2960,44 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>15400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3010,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2920,58 +3025,61 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E48" s="3">
         <v>215700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>221700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>209700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>192300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>167500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>141500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>134800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>94500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>31000</v>
       </c>
       <c r="R48" s="3">
         <v>31000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>31000</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -2982,8 +3090,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,58 +3285,61 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>300</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,58 +3415,61 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E54" s="3">
         <v>236900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>242000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>236200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>227400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>208300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>184500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>169700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>128000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>31800</v>
       </c>
       <c r="R54" s="3">
         <v>31800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
+      <c r="S54" s="3">
+        <v>31800</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,58 +3532,59 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>5900</v>
       </c>
       <c r="L57" s="3">
         <v>5900</v>
       </c>
       <c r="M57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3800</v>
       </c>
       <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>3800</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3464,58 +3595,61 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E58" s="3">
         <v>131800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>130700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>117700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>92700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>70800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>49500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>50300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>51900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>25000</v>
       </c>
       <c r="R58" s="3">
         <v>25000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>25000</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
@@ -3526,58 +3660,61 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>1100</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -3588,8 +3725,11 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3650,58 +3790,61 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E61" s="3">
         <v>18400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>28500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>5500</v>
       </c>
       <c r="N61" s="3">
         <v>5500</v>
       </c>
       <c r="O61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P61" s="3">
         <v>4900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>4000</v>
       </c>
       <c r="R61" s="3">
         <v>4000</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3712,8 +3855,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3765,8 +3911,8 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,58 +4115,61 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E66" s="3">
         <v>165300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>173100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>160600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>139300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>115000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>84900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>31900</v>
       </c>
       <c r="R66" s="3">
         <v>31900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
+      <c r="S66" s="3">
+        <v>31900</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4191,19 +4359,19 @@
         <v>62900</v>
       </c>
       <c r="I70" s="3">
-        <v>66500</v>
+        <v>62900</v>
       </c>
       <c r="J70" s="3">
         <v>66500</v>
       </c>
       <c r="K70" s="3">
-        <v>28700</v>
+        <v>66500</v>
       </c>
       <c r="L70" s="3">
         <v>28700</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>28700</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,58 +4465,61 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6500</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1000</v>
       </c>
       <c r="R72" s="3">
         <v>-1000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
+      <c r="S72" s="3">
+        <v>-1000</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,58 +4725,61 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E76" s="3">
         <v>8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
+      <c r="S76" s="3">
+        <v>-200</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4831,13 +5030,13 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4849,7 +5048,7 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4857,32 +5056,35 @@
       <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>200</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>-300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-44600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3500</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,8 +5497,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5289,58 +5510,61 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>100</v>
       </c>
       <c r="F94" s="3">
+        <v>100</v>
+      </c>
+      <c r="G94" s="3">
         <v>4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E100" s="3">
         <v>4200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>26400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>28100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>23600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
